--- a/Testcase/VWO_Login Testcase_Document_20230608.xlsx
+++ b/Testcase/VWO_Login Testcase_Document_20230608.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VWO\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VWO\Manual-testing-project-on-VWO.com\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49BD03-616F-45B8-B88F-830CBCC3A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593FBDF-97F8-4735-BCF1-E408BD24707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration Page" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -429,7 +430,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +459,13 @@
       <color rgb="FF374151"/>
       <name val="Lato"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -501,8 +512,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -520,11 +532,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -805,11 +816,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
     <col min="2" max="2" width="15.90625" customWidth="1"/>
@@ -823,7 +834,7 @@
     <col min="11" max="11" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -864,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="87">
+    <row r="2" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -877,7 +888,7 @@
       <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -901,7 +912,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="72.5">
+    <row r="3" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -912,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -936,7 +947,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="58">
+    <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -946,8 +957,8 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -971,7 +982,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="58">
+    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -982,7 +993,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1006,7 +1017,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="58">
+    <row r="6" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1041,7 +1052,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="58">
+    <row r="7" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1076,7 +1087,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="58">
+    <row r="8" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1111,7 +1122,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="72.5">
+    <row r="9" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1146,7 +1157,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="72.5">
+    <row r="10" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1181,7 +1192,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="87">
+    <row r="11" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1203,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1216,7 +1227,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="72.5">
+    <row r="12" spans="1:13" ht="76" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1249,7 +1260,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="72.5">
+    <row r="13" spans="1:13" ht="74.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1291,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="87">
+    <row r="14" spans="1:13" ht="95" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1322,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="87">
+    <row r="15" spans="1:13" ht="95" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1353,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="77.5">
+    <row r="16" spans="1:13" ht="95" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1384,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="124">
+    <row r="17" spans="1:13" ht="152" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1415,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="87">
+    <row r="18" spans="1:13" ht="95" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1446,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="87">
+    <row r="19" spans="1:13" ht="95" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1477,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="116">
+    <row r="20" spans="1:13" ht="133" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1497,7 +1508,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="72.5">
+    <row r="21" spans="1:13" ht="76" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1533,4 +1544,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54312239-D27B-4519-8756-1F77EAFE55A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testcase/VWO_Login Testcase_Document_20230608.xlsx
+++ b/Testcase/VWO_Login Testcase_Document_20230608.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VWO\Manual-testing-project-on-VWO.com\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593FBDF-97F8-4735-BCF1-E408BD24707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4FA3A0-021B-47A0-8708-FAB43CE3AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -424,6 +424,129 @@
     <t>Login Should not work with a  long 
 username (over 30 characters) 
 and a valid password</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Test that the registeration page loads correctly.</t>
+  </si>
+  <si>
+    <t>Test that all fields on the registeration page are displayed correctly.</t>
+  </si>
+  <si>
+    <t>Test that the required fields on the registeration page are marked with an asterisk.</t>
+  </si>
+  <si>
+    <t>Test that the email field accepts a valid email address.</t>
+  </si>
+  <si>
+    <t>Test that the password field accepts a password with at least 6 characters.</t>
+  </si>
+  <si>
+    <t>Test that the password confirmation field matches the password field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form cannot be submitted without all required fields being filled out.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form cannot be submitted with an invalid email address.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form cannot be submitted with a password that is less than 6 characters.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form cannot be submitted with a password confirmation that does not match the password.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form can be successfully submitted with valid input.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an invalid email address is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when a password that is less than 6 characters is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when a password confirmation does not match the password.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays a success message when valid input is entered and the form is successfully submitted.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form redirects to the login page after a successful submission.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an email address that is already in use is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts special characters in the password field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts numbers in the password field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts upper and lower case letters in the password field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays a password strength indicator.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form requires a strong password to be entered in order to successfully submit the form.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts a phone number in the phone field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts a valid date of birth in the date of birth field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts a valid country in the country field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays a list of countries to choose from in the country field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts a valid address in the address field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts a valid city in the city field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts a valid state in the state field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form accepts a valid zip code in the zip code field.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an invalid phone number is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an invalid date of birth is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an invalid country is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an invalid address is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an invalid city is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an invalid state is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays an error message when an invalid zip code is entered.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form allows the user to select a preferred language.</t>
+  </si>
+  <si>
+    <t>Test that the registeration form displays a list of available languages to choose from.</t>
   </si>
 </sst>
 </file>
@@ -433,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +590,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9900FF"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9900FF"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Lato"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +623,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFF7F7F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
         <bgColor rgb="FFF7F7F8"/>
       </patternFill>
     </fill>
@@ -516,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +684,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1548,14 +1702,338 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54312239-D27B-4519-8756-1F77EAFE55A6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="131.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>